--- a/data/trans_bre/P15B_3_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P15B_3_R-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-3.689043557345528</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-22.12455054957357</v>
+        <v>-22.12455054957356</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.8888629176474385</v>
@@ -649,7 +649,7 @@
         <v>-0.3310214791938322</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.6866543298399315</v>
+        <v>-0.6866543298399314</v>
       </c>
     </row>
     <row r="5">
@@ -660,16 +660,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-56.08984284678002</v>
+        <v>-55.72420289694426</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-25.82697419826733</v>
+        <v>-26.64863018420553</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-13.97477811929003</v>
+        <v>-13.40429101183477</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-38.46543159980917</v>
+        <v>-40.91975218486954</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>-1</v>
@@ -678,10 +678,10 @@
         <v>-1</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.8883278766579783</v>
+        <v>-0.806572004479035</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.8814674650659503</v>
+        <v>-0.8888985959836838</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-10.71283019058547</v>
+        <v>-11.75063763964321</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-8.355055175987863</v>
+        <v>-7.895369599876949</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.141638160921187</v>
+        <v>5.8702980646589</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-5.495871853035823</v>
+        <v>-6.307538801428278</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6767037010739212</v>
+        <v>-0.1687423988581815</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.4597655336465328</v>
+        <v>-0.2995538151067573</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.052960343612875</v>
+        <v>1.443835291720652</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.2154062655287383</v>
+        <v>-0.2565780809413965</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-15.16001752800784</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-17.33171453100702</v>
+        <v>-17.33171453100703</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.5207358208457707</v>
@@ -749,7 +749,7 @@
         <v>-1</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.6938637691050836</v>
+        <v>-0.6938637691050838</v>
       </c>
     </row>
     <row r="8">
@@ -760,26 +760,26 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-36.71738360840014</v>
+        <v>-36.08854786897002</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-34.20944441161983</v>
+        <v>-36.25024466185693</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-28.65433362779629</v>
+        <v>-28.22581264139998</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-33.24872938154308</v>
+        <v>-31.43820227193538</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.8997633121476196</v>
+        <v>-0.8875778610918461</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.9270551452295905</v>
+        <v>-0.9235070322879646</v>
       </c>
       <c r="I8" s="6" t="inlineStr"/>
       <c r="J8" s="6" t="n">
-        <v>-0.9090031551372932</v>
+        <v>-0.9120591418751586</v>
       </c>
     </row>
     <row r="9">
@@ -790,26 +790,26 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.82109502224681</v>
+        <v>5.27822168032925</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-11.12326565014679</v>
+        <v>-13.59743905096097</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-6.458851511501357</v>
+        <v>-6.212481865358186</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-2.965905290600324</v>
+        <v>-3.936613246772561</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3988630733520748</v>
+        <v>0.5241114985005912</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.3841580749064737</v>
+        <v>-0.4433716708736609</v>
       </c>
       <c r="I9" s="6" t="inlineStr"/>
       <c r="J9" s="6" t="n">
-        <v>-0.04133757092239267</v>
+        <v>-0.1172284395008174</v>
       </c>
     </row>
     <row r="10">
@@ -833,7 +833,7 @@
         <v>-12.9317469171462</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-7.560135555649948</v>
+        <v>-7.560135555649951</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.8313132928662068</v>
@@ -845,7 +845,7 @@
         <v>-0.6210832331021152</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.4419528316483283</v>
+        <v>-0.4419528316483284</v>
       </c>
     </row>
     <row r="11">
@@ -856,28 +856,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-54.73498163486198</v>
+        <v>-55.4009351703216</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-26.55721892165991</v>
+        <v>-26.02002789476287</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-28.17652355827027</v>
+        <v>-27.60973280863551</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-21.20424702643608</v>
+        <v>-20.33133776229274</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.9482422921299056</v>
+        <v>-0.9376975646798492</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.9135228515084916</v>
+        <v>-0.9098335526665001</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.8314875138589933</v>
+        <v>-0.8171085123406059</v>
       </c>
     </row>
     <row r="12">
@@ -888,28 +888,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-16.938209756575</v>
+        <v>-18.9493204578229</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-4.108840797241804</v>
+        <v>-3.906002340135997</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2393454389975628</v>
+        <v>1.483889524053144</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.697569654606764</v>
+        <v>3.027583678512652</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.377938653176349</v>
+        <v>-0.4572078596243974</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.1733302560515806</v>
+        <v>-0.1067808094974573</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2021468949113731</v>
+        <v>0.2589009945590837</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3942113673949559</v>
+        <v>0.4155927337426726</v>
       </c>
     </row>
     <row r="13">
@@ -956,25 +956,23 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-14.93661712683656</v>
+        <v>-12.6904583638618</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-13.67709812592469</v>
+        <v>-11.74680290708136</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-16.63434280693735</v>
+        <v>-15.12174467019973</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-39.74056895332429</v>
+        <v>-38.18509859085268</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>-0.7637886513580203</v>
-      </c>
-      <c r="J14" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.6953267024633411</v>
+      </c>
+      <c r="J14" s="6" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -984,25 +982,23 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>28.50159448529819</v>
+        <v>32.48673348935244</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>20.87404368468446</v>
+        <v>21.72802990740268</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>31.65853021161466</v>
+        <v>31.61996890955163</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-7.293997909920257</v>
+        <v>-5.245242966971475</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>6.263155013255809</v>
-      </c>
-      <c r="J15" s="6" t="n">
-        <v>-0.2885604259456699</v>
-      </c>
+        <v>7.678496113355</v>
+      </c>
+      <c r="J15" s="6" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1025,7 +1021,7 @@
         <v>-7.6002134024424</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-15.2791944974871</v>
+        <v>-15.27919449748709</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.7186804068254637</v>
@@ -1048,28 +1044,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-33.79246550884724</v>
+        <v>-33.44173058113768</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-21.85571812691101</v>
+        <v>-21.66792312730945</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-14.4567137623083</v>
+        <v>-13.50739698455421</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-22.5678199564174</v>
+        <v>-23.25216116552061</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.8712861003118338</v>
+        <v>-0.8781609514530849</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.8717130379477754</v>
+        <v>-0.874363293804872</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.7492478539270326</v>
+        <v>-0.7374247823901293</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.8090841796956252</v>
+        <v>-0.8265867059941636</v>
       </c>
     </row>
     <row r="18">
@@ -1080,28 +1076,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-11.82542084814412</v>
+        <v>-13.0286590327919</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-11.12206675102496</v>
+        <v>-10.28596828070996</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-1.826805745311</v>
+        <v>-1.018297526975144</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-8.114186605908914</v>
+        <v>-8.833886047603546</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.3889012149643494</v>
+        <v>-0.4343903107301002</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.5416895625104775</v>
+        <v>-0.560564610729091</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.1466511183508759</v>
+        <v>-0.07648525908138758</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.4373202073652143</v>
+        <v>-0.4709651979206274</v>
       </c>
     </row>
     <row r="19">
